--- a/data/organisation.xlsx
+++ b/data/organisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{231070C9-DC3E-4136-A36D-1FACABE50088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF37AC52-EC75-44D1-BCB6-62F6F28FC7BA}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{231070C9-DC3E-4136-A36D-1FACABE50088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A54028EF-8EBE-4B58-9DBE-6737C34F626C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>what</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Norsk Havforskerforening</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -925,22 +928,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -948,73 +952,85 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>2017</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
         <v>2016</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
         <v>2020</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
